--- a/data modeling feb. 05, 2018--Conceptual.xlsx
+++ b/data modeling feb. 05, 2018--Conceptual.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTCStudent\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTCStudent\Desktop\ClassProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -154,6 +154,22 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MemberID     </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
@@ -224,6 +240,25 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AddressID               </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:pPr algn="ctr"/>
           <a:endParaRPr lang="en-US" sz="1100" b="1"/>
         </a:p>
@@ -293,10 +328,21 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AddressTypeID    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -325,12 +371,12 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="1"/>
-          <a:endCxn id="3" idx="3"/>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
+        <a:xfrm flipV="1">
           <a:off x="6877050" y="3514725"/>
           <a:ext cx="1209675" cy="4762"/>
         </a:xfrm>
@@ -381,12 +427,12 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="1"/>
-          <a:endCxn id="4" idx="3"/>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
+        <a:xfrm>
           <a:off x="10534650" y="3514725"/>
           <a:ext cx="447675" cy="9525"/>
         </a:xfrm>
@@ -471,6 +517,25 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
             <a:t>Members.PhoneNumber</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PhoneNumberID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -481,7 +546,7 @@
                 <a:srgbClr val="002060"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>   </a:t>
+            <a:t>       </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -552,6 +617,24 @@
             <a:t>PhoneType</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PhoneTypeID      </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>                  </a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -579,12 +662,12 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="13" idx="1"/>
-          <a:endCxn id="12" idx="3"/>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
+        <a:xfrm flipV="1">
           <a:off x="7181850" y="1171575"/>
           <a:ext cx="1390650" cy="4763"/>
         </a:xfrm>
@@ -635,12 +718,12 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="0"/>
-          <a:endCxn id="12" idx="2"/>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
+        <a:xfrm>
           <a:off x="5929313" y="1800225"/>
           <a:ext cx="9524" cy="971549"/>
         </a:xfrm>
@@ -730,10 +813,21 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>         </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NoteID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>              </a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -800,7 +894,14 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EmailAddressID</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -867,6 +968,25 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CCID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>                      </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -876,15 +996,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>123824</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -896,17 +1016,19 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="1"/>
-          <a:endCxn id="40" idx="3"/>
+          <a:stCxn id="40" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="3133726" y="1295401"/>
+        <a:xfrm>
+          <a:off x="3133725" y="1295400"/>
           <a:ext cx="1866899" cy="2224087"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -952,12 +1074,12 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="1"/>
-          <a:endCxn id="42" idx="3"/>
+          <a:stCxn id="42" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
+        <a:xfrm>
           <a:off x="2800350" y="3476625"/>
           <a:ext cx="2200274" cy="42862"/>
         </a:xfrm>
@@ -988,15 +1110,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:colOff>568594</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>51823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>378094</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>112202</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1011,8 +1133,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4819650" y="6467476"/>
-          <a:ext cx="2247900" cy="819150"/>
+          <a:off x="4862916" y="6638603"/>
+          <a:ext cx="2263398" cy="835294"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1044,6 +1166,24 @@
             <a:t>Members.CCType</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CCTypeID         </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>     </a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -1105,6 +1245,120 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
             <a:t>Members.Event</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EventID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>             </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Flowchart: Process 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B995E5EF-BD1A-407F-8FDF-8D07DE4ACD56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791075" y="9429750"/>
+          <a:ext cx="2305050" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>PaymentMethods</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PaymentMethodID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>     </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1115,16 +1369,8 @@
                 <a:srgbClr val="002060"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>           </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+            <a:t>                   </a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1132,23 +1378,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Flowchart: Process 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B995E5EF-BD1A-407F-8FDF-8D07DE4ACD56}"/>
+        <xdr:cNvPr id="56" name="Flowchart: Process 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D4001C-E263-44FA-B8FC-A79D7FCAEA8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1156,8 +1402,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4791075" y="9429750"/>
-          <a:ext cx="2305050" cy="1409700"/>
+          <a:off x="9144000" y="8486776"/>
+          <a:ext cx="2247900" cy="876299"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1186,7 +1432,25 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>PaymentMethods</a:t>
+            <a:t>PaymentType</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PaymentTypeID        </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1197,21 +1461,21 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Flowchart: Process 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D4001C-E263-44FA-B8FC-A79D7FCAEA8B}"/>
+        <xdr:cNvPr id="59" name="Flowchart: Process 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A34836C9-C3FC-434B-9940-C2A7ACE8A9C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1219,8 +1483,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9144000" y="8486776"/>
-          <a:ext cx="2247900" cy="876299"/>
+          <a:off x="9144000" y="4781550"/>
+          <a:ext cx="2247900" cy="1028699"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1249,7 +1513,25 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>PaymentType</a:t>
+            <a:t>Host</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HostID                 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>       </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1258,23 +1540,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="Flowchart: Process 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A34836C9-C3FC-434B-9940-C2A7ACE8A9C5}"/>
+        <xdr:cNvPr id="61" name="Flowchart: Process 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5670B1F-C7F1-4602-97CC-7EDC53B39A14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1282,8 +1564,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9134475" y="4762500"/>
-          <a:ext cx="2247900" cy="1028699"/>
+          <a:off x="4772024" y="7696200"/>
+          <a:ext cx="2276475" cy="1323975"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1312,14 +1594,26 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Host</a:t>
+            <a:t>Members.Subscription</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>      </a:t>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SubscriptionID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>          </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1328,23 +1622,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>346291</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>125439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241516</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>154014</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Flowchart: Process 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5670B1F-C7F1-4602-97CC-7EDC53B39A14}"/>
+        <xdr:cNvPr id="63" name="Flowchart: Process 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD27AF2-DED5-4F28-85FA-585DA4845E50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1352,8 +1646,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4772024" y="7696200"/>
-          <a:ext cx="2276475" cy="1323975"/>
+          <a:off x="346291" y="5162388"/>
+          <a:ext cx="2349123" cy="997219"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1382,7 +1676,18 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Members.Subscription</a:t>
+            <a:t>Members.SubscriptionTyp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SubscriptionTypeID    </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1391,23 +1696,422 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Straight Arrow Connector 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{409FC571-5155-4BF7-897D-D70D9BBD5586}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="0"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5938837" y="4267199"/>
+          <a:ext cx="14288" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>473344</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>51822</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Connector: Elbow 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC4D1767-BD9A-496B-809D-0F511EF30329}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="2"/>
+          <a:endCxn id="50" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5809765" y="6453752"/>
+          <a:ext cx="363081" cy="6619"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504823</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123823</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>168302</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="Connector: Elbow 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{398EE43E-6730-4F78-A72F-366AC11715FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="1"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="4799145" y="3577605"/>
+          <a:ext cx="232475" cy="4921036"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -98333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>293904</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>154014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="Connector: Elbow 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E340A587-208A-4990-BB99-4D006A7CB81D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="2"/>
+          <a:endCxn id="63" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="2226832" y="5453628"/>
+          <a:ext cx="3012322" cy="4424280"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -7589"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="Connector: Elbow 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7507C1EA-DD15-43F1-9A4D-2E1EC3F3DFE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="5519737"/>
+          <a:ext cx="2085975" cy="1881188"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="Straight Arrow Connector 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F44A98-4A98-4C02-B37B-B74DB082E864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="0"/>
+          <a:endCxn id="59" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10267950" y="5810249"/>
+          <a:ext cx="9525" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>36486</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="Connector: Elbow 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5691861D-E9DF-49FD-9E61-59ADE4716A36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="3"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6919670" y="3577605"/>
+          <a:ext cx="219075" cy="6726508"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -104348"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>339510</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>21310</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>79913</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Flowchart: Process 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD27AF2-DED5-4F28-85FA-585DA4845E50}"/>
+        <xdr:cNvPr id="121" name="Flowchart: Process 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6182BB1F-CCAA-4759-85F0-43CE5600A253}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1415,8 +2119,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="523875" y="5172075"/>
-          <a:ext cx="2333625" cy="981075"/>
+          <a:off x="1566459" y="10480891"/>
+          <a:ext cx="2749173" cy="1222751"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1445,7 +2149,26 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Members.SubscriptionType</a:t>
+            <a:t>Members.CCTransactions</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TransactionID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1454,37 +2177,37 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>487149</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>187351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="Straight Arrow Connector 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{409FC571-5155-4BF7-897D-D70D9BBD5586}"/>
+        <xdr:cNvPr id="127" name="Connector: Elbow 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC6D6A6B-5A70-4F6E-B5D8-F01FFFA717DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="44" idx="0"/>
+          <a:stCxn id="121" idx="0"/>
+          <a:endCxn id="44" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5938837" y="4267199"/>
-          <a:ext cx="14288" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="1478393" y="7074412"/>
+          <a:ext cx="4869133" cy="1943826"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -1510,40 +2233,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>163541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="Connector: Elbow 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC4D1767-BD9A-496B-809D-0F511EF30329}"/>
+        <xdr:cNvPr id="130" name="Connector: Elbow 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{741223FE-66FA-47AB-906E-5FCE076938B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="2"/>
-          <a:endCxn id="44" idx="1"/>
+          <a:stCxn id="54" idx="2"/>
+          <a:endCxn id="56" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1">
-          <a:off x="4517230" y="5860257"/>
-          <a:ext cx="1766889" cy="1085850"/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="6617696" y="8435841"/>
+          <a:ext cx="1945198" cy="3223648"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -12938"/>
-            <a:gd name="adj2" fmla="val 124561"/>
+            <a:gd name="adj1" fmla="val -11752"/>
+            <a:gd name="adj2" fmla="val 67996"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1569,309 +2292,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="Connector: Elbow 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{398EE43E-6730-4F78-A72F-366AC11715FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="1"/>
-          <a:endCxn id="61" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="4772024" y="3519486"/>
-          <a:ext cx="228600" cy="4838701"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 200000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>471489</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>423863</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="94" name="Connector: Elbow 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E340A587-208A-4990-BB99-4D006A7CB81D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="63" idx="2"/>
-          <a:endCxn id="61" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2366963" y="5476875"/>
-          <a:ext cx="2867025" cy="4219574"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 107973"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="103" name="Connector: Elbow 102">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7507C1EA-DD15-43F1-9A4D-2E1EC3F3DFE3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="44" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7048500" y="5519737"/>
-          <a:ext cx="2085975" cy="1881188"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="105" name="Straight Arrow Connector 104">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F44A98-4A98-4C02-B37B-B74DB082E864}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="59" idx="2"/>
-          <a:endCxn id="52" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10258425" y="5791199"/>
-          <a:ext cx="19050" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="120" name="Connector: Elbow 119">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5691861D-E9DF-49FD-9E61-59ADE4716A36}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="0"/>
-          <a:endCxn id="54" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2836068" y="5874543"/>
-          <a:ext cx="7362826" cy="1157288"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -3105"/>
-            <a:gd name="adj2" fmla="val 119753"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="Flowchart: Process 120">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6182BB1F-CCAA-4759-85F0-43CE5600A253}"/>
+        <xdr:cNvPr id="131" name="Flowchart: Process 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D848A5BD-30D9-42BA-97F7-5F0BCF49AD8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,8 +2316,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1381125" y="9705975"/>
-          <a:ext cx="2733675" cy="1200150"/>
+          <a:off x="9115425" y="9848850"/>
+          <a:ext cx="2590800" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1909,8 +2346,23 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Members.CCTransactions</a:t>
-          </a:r>
+            <a:t>EventAttendance</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EventID              </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1918,198 +2370,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="127" name="Connector: Elbow 126">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC6D6A6B-5A70-4F6E-B5D8-F01FFFA717DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="44" idx="1"/>
-          <a:endCxn id="121" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="4114800" y="5519736"/>
-          <a:ext cx="742950" cy="4786313"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="130" name="Connector: Elbow 129">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{741223FE-66FA-47AB-906E-5FCE076938B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="56" idx="1"/>
-          <a:endCxn id="54" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5943600" y="8924926"/>
-          <a:ext cx="3200400" cy="1914524"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 31994"/>
-            <a:gd name="adj2" fmla="val 111940"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>26961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="Flowchart: Process 130">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D848A5BD-30D9-42BA-97F7-5F0BCF49AD8F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9115425" y="9848850"/>
-          <a:ext cx="2590800" cy="990600"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>EventAttendance</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>55536</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2121,18 +2391,18 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="52" idx="1"/>
-          <a:endCxn id="131" idx="1"/>
+          <a:stCxn id="52" idx="3"/>
+          <a:endCxn id="131" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="9115426" y="7077074"/>
-          <a:ext cx="38099" cy="3267075"/>
+        <a:xfrm>
+          <a:off x="11471167" y="7194927"/>
+          <a:ext cx="308675" cy="3321965"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 700016"/>
+            <a:gd name="adj1" fmla="val 174058"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2160,40 +2430,97 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>171451</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>581026</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>55537</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="139" name="Connector: Elbow 138">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1776F35-CEB2-4B64-AB1D-25EC5BB9A9BD}"/>
+        <xdr:cNvPr id="45" name="Connector: Elbow 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B9FA19-FA1D-4EA2-A732-D19A9CE934E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="131" idx="1"/>
+          <a:stCxn id="131" idx="1"/>
+          <a:endCxn id="3" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6877050" y="3519487"/>
-          <a:ext cx="2238375" cy="6824663"/>
+        <a:xfrm rot="10800000">
+          <a:off x="6919671" y="3577606"/>
+          <a:ext cx="2249999" cy="6939287"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241517</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>36487</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Connector: Elbow 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EED43A2-EADE-4D6D-AB49-A5A8FB1A0FF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="1"/>
+          <a:endCxn id="63" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2695415" y="5660999"/>
+          <a:ext cx="2122783" cy="4643115"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -2516,8 +2843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51315553-DA18-4974-A7B4-E995DE6A4EDF}">
   <dimension ref="I8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="W49" sqref="W49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
